--- a/sofaplayer/La_Liga/Real Betis_stats.xlsx
+++ b/sofaplayer/La_Liga/Real Betis_stats.xlsx
@@ -1035,40 +1035,40 @@
         <v>115665</v>
       </c>
       <c r="E2" t="n">
-        <v>6.6333333333333</v>
+        <v>6.7</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>251</v>
+        <v>340</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1.1122</v>
+        <v>1.7121</v>
       </c>
       <c r="L2" t="n">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="M2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>9.090909090909101</v>
+        <v>13.333333333333</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.02232476</v>
+        <v>0.02377556</v>
       </c>
       <c r="AB2" t="n">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1113,22 +1113,22 @@
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>73.529411764706</v>
+        <v>73.46938775510201</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8</v>
       </c>
       <c r="AK2" t="n">
         <v>2</v>
@@ -1179,31 +1179,31 @@
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
-        <v>42.857142857143</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>56.25</v>
+      </c>
+      <c r="BE2" t="n">
         <v>7</v>
       </c>
-      <c r="BD2" t="n">
-        <v>53.846153846154</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>5</v>
-      </c>
       <c r="BF2" t="n">
-        <v>33.333333333333</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BG2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BH2" t="n">
         <v>3</v>
       </c>
       <c r="BI2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ2" t="n">
         <v>6</v>
@@ -1221,28 +1221,28 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>59.7</v>
+        <v>67</v>
       </c>
       <c r="BR2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BS2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BW2" t="n">
         <v>0</v>
@@ -1254,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CA2" t="n">
         <v>2</v>
       </c>
       <c r="CB2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC2" t="n">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>2</v>
       </c>
       <c r="CU2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CV2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="DG2" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>958380</v>
       </c>
       <c r="E5" t="n">
-        <v>7.2666666666667</v>
+        <v>7.2631578947368</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="n">
-        <v>1505</v>
+        <v>1595</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
@@ -2121,22 +2121,22 @@
         <v>6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3587</v>
+        <v>4.9133</v>
       </c>
       <c r="L5" t="n">
-        <v>250.83333333333</v>
+        <v>265.83333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P5" t="n">
-        <v>11.764705882353</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2166,37 +2166,37 @@
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.2077982</v>
+        <v>3.5789922</v>
       </c>
       <c r="AB5" t="n">
-        <v>1047</v>
+        <v>1107</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>606</v>
+        <v>642</v>
       </c>
       <c r="AF5" t="n">
-        <v>82.448979591837</v>
+        <v>82.625482625483</v>
       </c>
       <c r="AG5" t="n">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="AH5" t="n">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AI5" t="n">
-        <v>427</v>
+        <v>451</v>
       </c>
       <c r="AJ5" t="n">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="AK5" t="n">
         <v>13</v>
@@ -2205,34 +2205,34 @@
         <v>50</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AN5" t="n">
-        <v>18.75</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>10</v>
       </c>
       <c r="AR5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AS5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT5" t="n">
         <v>15</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>46.153846153846</v>
       </c>
       <c r="BA5" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB5" t="n">
-        <v>50.359712230216</v>
+        <v>50.34965034965</v>
       </c>
       <c r="BC5" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BD5" t="n">
-        <v>52.380952380952</v>
+        <v>52.307692307692</v>
       </c>
       <c r="BE5" t="n">
         <v>4</v>
@@ -2265,13 +2265,13 @@
         <v>30.769230769231</v>
       </c>
       <c r="BG5" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="BH5" t="n">
         <v>11</v>
       </c>
       <c r="BI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BJ5" t="n">
         <v>1</v>
@@ -2289,22 +2289,22 @@
         <v>2</v>
       </c>
       <c r="BO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>130.8</v>
+        <v>138</v>
       </c>
       <c r="BR5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BT5" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="BU5" t="n">
         <v>1</v>
@@ -2322,19 +2322,19 @@
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CA5" t="n">
         <v>24</v>
       </c>
       <c r="CB5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC5" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CD5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CE5" t="n">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK5" t="n">
         <v>6</v>
@@ -2376,16 +2376,16 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="CS5" t="n">
         <v>39</v>
       </c>
       <c r="CT5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CU5" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="CV5" t="n">
         <v>9</v>
@@ -2403,10 +2403,10 @@
         <v>26</v>
       </c>
       <c r="DA5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB5" t="n">
-        <v>59.090909090909</v>
+        <v>60.869565217391</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2418,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="DG5" t="n">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,64 +2459,64 @@
         <v>1011375</v>
       </c>
       <c r="E6" t="n">
-        <v>7.2</v>
+        <v>7.24</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>1053</v>
+        <v>1143</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.1823</v>
+      </c>
+      <c r="L6" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>42</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.904761904762</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.5638</v>
-      </c>
-      <c r="L6" t="n">
-        <v>263.25</v>
-      </c>
-      <c r="M6" t="n">
-        <v>38</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>10.526315789474</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1</v>
-      </c>
-      <c r="X6" t="n">
-        <v>3</v>
       </c>
       <c r="Y6" t="n">
         <v>3</v>
@@ -2525,10 +2525,10 @@
         <v>4</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.40646086</v>
+        <v>1.45672046</v>
       </c>
       <c r="AB6" t="n">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="AC6" t="n">
         <v>7</v>
@@ -2537,22 +2537,22 @@
         <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="AF6" t="n">
-        <v>78.53535353535401</v>
+        <v>78.672985781991</v>
       </c>
       <c r="AG6" t="n">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="AH6" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="n">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AJ6" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AK6" t="n">
         <v>8</v>
@@ -2570,22 +2570,22 @@
         <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS6" t="n">
         <v>16</v>
       </c>
-      <c r="AR6" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>13</v>
-      </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -2603,31 +2603,31 @@
         <v>47.727272727273</v>
       </c>
       <c r="BA6" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="BB6" t="n">
-        <v>52.525252525253</v>
+        <v>51.834862385321</v>
       </c>
       <c r="BC6" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="BD6" t="n">
-        <v>54.487179487179</v>
+        <v>54.970760233918</v>
       </c>
       <c r="BE6" t="n">
         <v>19</v>
       </c>
       <c r="BF6" t="n">
-        <v>45.238095238095</v>
+        <v>40.425531914894</v>
       </c>
       <c r="BG6" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="BH6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BI6" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BJ6" t="n">
         <v>2</v>
@@ -2645,22 +2645,22 @@
         <v>2</v>
       </c>
       <c r="BO6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP6" t="n">
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>100.8</v>
+        <v>108.6</v>
       </c>
       <c r="BR6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BT6" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>2</v>
       </c>
       <c r="BZ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="CA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CC6" t="n">
         <v>19</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK6" t="n">
         <v>4</v>
@@ -2741,10 +2741,10 @@
         <v>25</v>
       </c>
       <c r="CU6" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="CV6" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>11</v>
       </c>
       <c r="DA6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB6" t="n">
-        <v>62.962962962963</v>
+        <v>60</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="DG6" t="n">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -4242,13 +4242,13 @@
         <v>6.8153846153846</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4257,13 +4257,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3645</v>
+        <v>0.3871</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0.25240489</v>
       </c>
       <c r="AB11" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4461,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="CA11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CB11" t="n">
         <v>12</v>
@@ -4595,16 +4595,16 @@
         <v>838629</v>
       </c>
       <c r="E12" t="n">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,226 +4661,226 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0114544</v>
+        <v>0.0457608</v>
       </c>
       <c r="AB12" t="n">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>94.59459459459499</v>
+        <v>88.235294117647</v>
       </c>
       <c r="AG12" t="n">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>38.461538461538</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>40</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>33.333333333333</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>17</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
         <v>8</v>
       </c>
-      <c r="AK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA12" t="n">
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS12" t="n">
         <v>3</v>
       </c>
-      <c r="BB12" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG12" t="n">
+      <c r="CT12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU12" t="n">
         <v>8</v>
       </c>
-      <c r="BH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>4</v>
-      </c>
       <c r="CV12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="DG12" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4951,16 +4951,16 @@
         <v>816763</v>
       </c>
       <c r="E13" t="n">
-        <v>7.1391304347826</v>
+        <v>7.1333333333333</v>
       </c>
       <c r="F13" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" t="n">
         <v>23</v>
       </c>
-      <c r="G13" t="n">
-        <v>22</v>
-      </c>
       <c r="H13" t="n">
-        <v>1858</v>
+        <v>1948</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -4969,22 +4969,22 @@
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.8707</v>
+        <v>3.2745</v>
       </c>
       <c r="L13" t="n">
-        <v>309.66666666667</v>
+        <v>324.66666666667</v>
       </c>
       <c r="M13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>18.75</v>
+        <v>17.142857142857</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5017,67 +5017,67 @@
         <v>4</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.7607623</v>
+        <v>4.0738913</v>
       </c>
       <c r="AB13" t="n">
-        <v>1466</v>
+        <v>1523</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AE13" t="n">
-        <v>945</v>
+        <v>983</v>
       </c>
       <c r="AF13" t="n">
-        <v>85.90909090909101</v>
+        <v>86.15249780894</v>
       </c>
       <c r="AG13" t="n">
-        <v>1100</v>
+        <v>1141</v>
       </c>
       <c r="AH13" t="n">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="AI13" t="n">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="AJ13" t="n">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>65.656565656566</v>
+        <v>67.30769230769199</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>25.882352941176</v>
+        <v>25.842696629213</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ13" t="n">
         <v>19</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AS13" t="n">
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -5095,28 +5095,28 @@
         <v>51.515151515152</v>
       </c>
       <c r="BA13" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB13" t="n">
-        <v>39.428571428571</v>
+        <v>39.106145251397</v>
       </c>
       <c r="BC13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD13" t="n">
-        <v>41.549295774648</v>
+        <v>41.666666666667</v>
       </c>
       <c r="BE13" t="n">
         <v>10</v>
       </c>
       <c r="BF13" t="n">
-        <v>30.30303030303</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BG13" t="n">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="BH13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BI13" t="n">
         <v>16</v>
@@ -5137,22 +5137,22 @@
         <v>3</v>
       </c>
       <c r="BO13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>164.2</v>
+        <v>171.2</v>
       </c>
       <c r="BR13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS13" t="n">
         <v>10</v>
       </c>
       <c r="BT13" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5170,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CA13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CB13" t="n">
         <v>25</v>
       </c>
       <c r="CC13" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CD13" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK13" t="n">
         <v>6</v>
@@ -5224,19 +5224,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CS13" t="n">
         <v>33</v>
       </c>
       <c r="CT13" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="CU13" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="CV13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="DA13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DB13" t="n">
-        <v>70.37037037037</v>
+        <v>71.428571428571</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="DG13" t="n">
-        <v>731</v>
+        <v>756</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5663,16 +5663,16 @@
         <v>847128</v>
       </c>
       <c r="E15" t="n">
-        <v>6.7833333333333</v>
+        <v>6.8</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>1267</v>
+        <v>1357</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5681,13 +5681,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.047</v>
+        <v>1.0848</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
@@ -5723,16 +5723,16 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.78130687</v>
+        <v>0.79236177</v>
       </c>
       <c r="AB15" t="n">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="AC15" t="n">
         <v>2</v>
@@ -5741,28 +5741,28 @@
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="AF15" t="n">
-        <v>86.68683812405401</v>
+        <v>86.549707602339</v>
       </c>
       <c r="AG15" t="n">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="AH15" t="n">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AI15" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="AJ15" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AL15" t="n">
-        <v>50.819672131148</v>
+        <v>52.380952380952</v>
       </c>
       <c r="AM15" t="n">
         <v>1</v>
@@ -5774,19 +5774,19 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ15" t="n">
         <v>11</v>
       </c>
       <c r="AR15" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AS15" t="n">
         <v>14</v>
       </c>
       <c r="AT15" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AU15" t="n">
         <v>1</v>
@@ -5807,31 +5807,31 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA15" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BB15" t="n">
-        <v>47.058823529412</v>
+        <v>47.727272727273</v>
       </c>
       <c r="BC15" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD15" t="n">
-        <v>49.514563106796</v>
+        <v>48.648648648649</v>
       </c>
       <c r="BE15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BF15" t="n">
-        <v>31.25</v>
+        <v>42.857142857143</v>
       </c>
       <c r="BG15" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="BH15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BJ15" t="n">
         <v>0</v>
@@ -5849,28 +5849,28 @@
         <v>5</v>
       </c>
       <c r="BO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>122.1</v>
+        <v>129.2</v>
       </c>
       <c r="BR15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS15" t="n">
         <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5885,16 +5885,16 @@
         <v>6</v>
       </c>
       <c r="CA15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC15" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CD15" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CE15" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK15" t="n">
         <v>6</v>
@@ -5945,28 +5945,28 @@
         <v>7</v>
       </c>
       <c r="CU15" t="n">
+        <v>69</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>12</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
         <v>63</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>11</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>61</v>
       </c>
       <c r="DA15" t="n">
         <v>24</v>
       </c>
       <c r="DB15" t="n">
-        <v>82.758620689655</v>
+        <v>80</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5978,16 +5978,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="DG15" t="n">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
       </c>
       <c r="DI15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ15" t="n">
         <v>2288785</v>
@@ -6019,16 +6019,16 @@
         <v>1137814</v>
       </c>
       <c r="E16" t="n">
-        <v>6.9866666666667</v>
+        <v>6.98125</v>
       </c>
       <c r="F16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0.2157</v>
       </c>
       <c r="L16" t="n">
-        <v>776</v>
+        <v>799</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -6085,10 +6085,10 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.52388093</v>
+        <v>0.52951206</v>
       </c>
       <c r="AB16" t="n">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -6097,22 +6097,22 @@
         <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AF16" t="n">
-        <v>90.945674044266</v>
+        <v>91.10671936758899</v>
       </c>
       <c r="AG16" t="n">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AH16" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI16" t="n">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AJ16" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
@@ -6142,7 +6142,7 @@
         <v>11</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU16" t="n">
         <v>1</v>
@@ -6157,31 +6157,31 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>66.666666666667</v>
+        <v>75</v>
       </c>
       <c r="BA16" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BB16" t="n">
-        <v>62.5</v>
+        <v>63.333333333333</v>
       </c>
       <c r="BC16" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD16" t="n">
-        <v>61.643835616438</v>
+        <v>62.162162162162</v>
       </c>
       <c r="BE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BF16" t="n">
-        <v>66.666666666667</v>
+        <v>68.75</v>
       </c>
       <c r="BG16" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BH16" t="n">
         <v>10</v>
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>104.8</v>
+        <v>111.7</v>
       </c>
       <c r="BR16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS16" t="n">
         <v>2</v>
@@ -6295,7 +6295,7 @@
         <v>8</v>
       </c>
       <c r="CS16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT16" t="n">
         <v>2</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="DG16" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6731,16 +6731,16 @@
         <v>1015287</v>
       </c>
       <c r="E18" t="n">
-        <v>6.7190476190476</v>
+        <v>6.7045454545455</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>1807</v>
+        <v>1897</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1039465</v>
+        <v>0.10456859</v>
       </c>
       <c r="AB18" t="n">
-        <v>1207</v>
+        <v>1250</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6809,19 +6809,19 @@
         <v>5</v>
       </c>
       <c r="AE18" t="n">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="AF18" t="n">
-        <v>87.54098360655701</v>
+        <v>87.72486772486801</v>
       </c>
       <c r="AG18" t="n">
-        <v>915</v>
+        <v>945</v>
       </c>
       <c r="AH18" t="n">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="AI18" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AJ18" t="n">
         <v>49</v>
@@ -6830,7 +6830,7 @@
         <v>43</v>
       </c>
       <c r="AL18" t="n">
-        <v>39.449541284404</v>
+        <v>38.738738738739</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6848,13 +6848,13 @@
         <v>2</v>
       </c>
       <c r="AR18" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AU18" t="n">
         <v>2</v>
@@ -6875,28 +6875,28 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA18" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="BB18" t="n">
-        <v>55.483870967742</v>
+        <v>54.658385093168</v>
       </c>
       <c r="BC18" t="n">
         <v>31</v>
       </c>
       <c r="BD18" t="n">
-        <v>54.385964912281</v>
+        <v>53.448275862069</v>
       </c>
       <c r="BE18" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BF18" t="n">
-        <v>56.122448979592</v>
+        <v>55.339805825243</v>
       </c>
       <c r="BG18" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="BH18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI18" t="n">
         <v>10</v>
@@ -6917,22 +6917,22 @@
         <v>7</v>
       </c>
       <c r="BO18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>141.1</v>
+        <v>147.5</v>
       </c>
       <c r="BR18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS18" t="n">
         <v>0</v>
       </c>
       <c r="BT18" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6959,10 +6959,10 @@
         <v>4</v>
       </c>
       <c r="CC18" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="CD18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK18" t="n">
         <v>5</v>
@@ -7013,10 +7013,10 @@
         <v>1</v>
       </c>
       <c r="CU18" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="CV18" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="DA18" t="n">
         <v>10</v>
@@ -7046,13 +7046,13 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="DG18" t="n">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="DH18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="DI18" t="n">
         <v>12</v>
@@ -7799,16 +7799,16 @@
         <v>99519</v>
       </c>
       <c r="E21" t="n">
-        <v>7.0368421052632</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
         <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>1547</v>
+        <v>1592</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -7820,7 +7820,7 @@
         <v>0.2524</v>
       </c>
       <c r="L21" t="n">
-        <v>1547</v>
+        <v>1592</v>
       </c>
       <c r="M21" t="n">
         <v>9</v>
@@ -7865,10 +7865,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.36202721</v>
+        <v>0.3625717</v>
       </c>
       <c r="AB21" t="n">
-        <v>1151</v>
+        <v>1174</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7877,28 +7877,28 @@
         <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="AF21" t="n">
-        <v>85.697399527187</v>
+        <v>85.39976825028999</v>
       </c>
       <c r="AG21" t="n">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="AH21" t="n">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="AI21" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AJ21" t="n">
         <v>73</v>
       </c>
       <c r="AK21" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AL21" t="n">
-        <v>42.962962962963</v>
+        <v>42.553191489362</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>50</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>41</v>
@@ -7916,13 +7916,13 @@
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -7943,25 +7943,25 @@
         <v>71.428571428571</v>
       </c>
       <c r="BA21" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BB21" t="n">
-        <v>61.267605633803</v>
+        <v>60.689655172414</v>
       </c>
       <c r="BC21" t="n">
         <v>54</v>
       </c>
       <c r="BD21" t="n">
-        <v>61.363636363636</v>
+        <v>60.674157303371</v>
       </c>
       <c r="BE21" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF21" t="n">
-        <v>61.111111111111</v>
+        <v>60.714285714286</v>
       </c>
       <c r="BG21" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="BH21" t="n">
         <v>13</v>
@@ -7985,22 +7985,22 @@
         <v>5</v>
       </c>
       <c r="BO21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>133.7</v>
+        <v>140</v>
       </c>
       <c r="BR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS21" t="n">
         <v>1</v>
       </c>
       <c r="BT21" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>3</v>
       </c>
       <c r="CC21" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CD21" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CE21" t="n">
         <v>1</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CK21" t="n">
         <v>4</v>
@@ -8081,10 +8081,10 @@
         <v>2</v>
       </c>
       <c r="CU21" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="DA21" t="n">
         <v>19</v>
@@ -8114,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="DG21" t="n">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="DH21" t="n">
         <v>9</v>
@@ -8155,16 +8155,16 @@
         <v>67769</v>
       </c>
       <c r="E22" t="n">
-        <v>6.6857142857143</v>
+        <v>6.6866666666667</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>962</v>
+        <v>1052</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.26059982</v>
+        <v>0.28557982</v>
       </c>
       <c r="AB22" t="n">
-        <v>592</v>
+        <v>629</v>
       </c>
       <c r="AC22" t="n">
         <v>1</v>
@@ -8233,52 +8233,52 @@
         <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="AF22" t="n">
-        <v>86.633663366337</v>
+        <v>86.150234741784</v>
       </c>
       <c r="AG22" t="n">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="AH22" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="AI22" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AJ22" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>35.897435897436</v>
+        <v>38.636363636364</v>
       </c>
       <c r="AM22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>41.666666666667</v>
+        <v>46.153846153846</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AS22" t="n">
         <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8299,25 +8299,25 @@
         <v>50</v>
       </c>
       <c r="BA22" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="BB22" t="n">
-        <v>52.830188679245</v>
+        <v>53.448275862069</v>
       </c>
       <c r="BC22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD22" t="n">
-        <v>50</v>
+        <v>51.351351351351</v>
       </c>
       <c r="BE22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BF22" t="n">
-        <v>58.823529411765</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG22" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="BH22" t="n">
         <v>5</v>
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="BO22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>93.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="BR22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS22" t="n">
         <v>1</v>
       </c>
       <c r="BT22" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8383,10 +8383,10 @@
         <v>4</v>
       </c>
       <c r="CC22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CD22" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK22" t="n">
         <v>3</v>
@@ -8434,13 +8434,13 @@
         <v>2</v>
       </c>
       <c r="CT22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CU22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CV22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="DA22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB22" t="n">
-        <v>33.333333333333</v>
+        <v>38.461538461538</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8470,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="DG22" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="DH22" t="n">
         <v>0</v>
@@ -8511,16 +8511,16 @@
         <v>305278</v>
       </c>
       <c r="E23" t="n">
-        <v>7.08</v>
+        <v>7.0833333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0.6687</v>
       </c>
       <c r="L23" t="n">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -8577,10 +8577,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.00999159</v>
+        <v>0.0104428</v>
       </c>
       <c r="AB23" t="n">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8589,19 +8589,19 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="AF23" t="n">
-        <v>88</v>
+        <v>88.235294117647</v>
       </c>
       <c r="AG23" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AH23" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="AI23" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AJ23" t="n">
         <v>4</v>
@@ -8610,7 +8610,7 @@
         <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>47.368421052632</v>
+        <v>45</v>
       </c>
       <c r="AM23" t="n">
         <v>0</v>
@@ -8622,19 +8622,19 @@
         <v>7</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -8655,65 +8655,65 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>53.333333333333</v>
+        <v>57.575757575758</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
-        <v>69.230769230769</v>
+        <v>73.333333333333</v>
       </c>
       <c r="BE23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF23" t="n">
-        <v>41.176470588235</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BG23" t="n">
+        <v>22</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT23" t="n">
         <v>20</v>
       </c>
-      <c r="BH23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>18</v>
-      </c>
       <c r="BU23" t="n">
         <v>0</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="CC23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CD23" t="n">
         <v>7</v>
@@ -8808,13 +8808,13 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DA23" t="n">
         <v>2</v>
       </c>
       <c r="DB23" t="n">
-        <v>40</v>
+        <v>33.333333333333</v>
       </c>
       <c r="DC23" t="n">
         <v>0</v>
@@ -8826,16 +8826,16 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="DG23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="DH23" t="n">
         <v>6</v>
       </c>
       <c r="DI23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DJ23" t="n">
         <v>2288783</v>
@@ -8867,16 +8867,16 @@
         <v>893062</v>
       </c>
       <c r="E24" t="n">
-        <v>6.9388888888889</v>
+        <v>6.9105263157895</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>1124</v>
+        <v>1191</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -8885,13 +8885,13 @@
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.9116</v>
+        <v>2.9179</v>
       </c>
       <c r="L24" t="n">
-        <v>281</v>
+        <v>297.75</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N24" t="n">
         <v>9</v>
@@ -8900,7 +8900,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>22.222222222222</v>
+        <v>21.052631578947</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.27291403</v>
+        <v>1.2806756</v>
       </c>
       <c r="AB24" t="n">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="AC24" t="n">
         <v>2</v>
@@ -8945,94 +8945,94 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="AF24" t="n">
-        <v>81.56682027649801</v>
+        <v>81.61925601750499</v>
       </c>
       <c r="AG24" t="n">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="AH24" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="AI24" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AJ24" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AK24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>42.307692307692</v>
+        <v>43.859649122807</v>
       </c>
       <c r="AM24" t="n">
         <v>5</v>
       </c>
       <c r="AN24" t="n">
-        <v>29.411764705882</v>
+        <v>27.777777777778</v>
       </c>
       <c r="AO24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
       </c>
       <c r="AR24" t="n">
+        <v>57</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>36.842105263158</v>
+      </c>
+      <c r="BA24" t="n">
         <v>53</v>
       </c>
-      <c r="AS24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>33.333333333333</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>50</v>
-      </c>
       <c r="BB24" t="n">
-        <v>43.859649122807</v>
+        <v>43.089430894309</v>
       </c>
       <c r="BC24" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BD24" t="n">
-        <v>45.454545454545</v>
+        <v>44.859813084112</v>
       </c>
       <c r="BE24" t="n">
         <v>5</v>
       </c>
       <c r="BF24" t="n">
-        <v>33.333333333333</v>
+        <v>31.25</v>
       </c>
       <c r="BG24" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="BH24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI24" t="n">
         <v>18</v>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="BK24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL24" t="n">
         <v>0</v>
@@ -9053,22 +9053,22 @@
         <v>4</v>
       </c>
       <c r="BO24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP24" t="n">
         <v>0</v>
       </c>
       <c r="BQ24" t="n">
-        <v>124.9</v>
+        <v>131.3</v>
       </c>
       <c r="BR24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS24" t="n">
         <v>5</v>
       </c>
       <c r="BT24" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="BU24" t="n">
         <v>0</v>
@@ -9089,16 +9089,16 @@
         <v>12</v>
       </c>
       <c r="CA24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CC24" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CD24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="CJ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CK24" t="n">
         <v>3</v>
@@ -9143,16 +9143,16 @@
         <v>16</v>
       </c>
       <c r="CS24" t="n">
+        <v>19</v>
+      </c>
+      <c r="CT24" t="n">
         <v>18</v>
       </c>
-      <c r="CT24" t="n">
-        <v>17</v>
-      </c>
       <c r="CU24" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="CV24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW24" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="DA24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB24" t="n">
-        <v>63.636363636364</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9182,10 +9182,10 @@
         <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="DG24" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
@@ -9223,16 +9223,16 @@
         <v>1152139</v>
       </c>
       <c r="E25" t="n">
-        <v>6.7285714285714</v>
+        <v>6.725</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9289,34 +9289,34 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.61644832</v>
+        <v>0.65021822</v>
       </c>
       <c r="AB25" t="n">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="AC25" t="n">
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="n">
-        <v>84.177215189873</v>
+        <v>84.33734939759</v>
       </c>
       <c r="AG25" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AH25" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI25" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
         <v>5</v>
@@ -9328,25 +9328,25 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>30.769230769231</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AO25" t="n">
         <v>3</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS25" t="n">
         <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU25" t="n">
         <v>1</v>
@@ -9367,16 +9367,16 @@
         <v>33.333333333333</v>
       </c>
       <c r="BA25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB25" t="n">
-        <v>48.214285714286</v>
+        <v>48.275862068966</v>
       </c>
       <c r="BC25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD25" t="n">
-        <v>50.943396226415</v>
+        <v>50.909090909091</v>
       </c>
       <c r="BE25" t="n">
         <v>0</v>
@@ -9385,10 +9385,10 @@
         <v>0</v>
       </c>
       <c r="BG25" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BH25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI25" t="n">
         <v>6</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>47.1</v>
+        <v>53.8</v>
       </c>
       <c r="BR25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9496,16 +9496,16 @@
         <v>0</v>
       </c>
       <c r="CR25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS25" t="n">
         <v>15</v>
       </c>
       <c r="CT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CU25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CV25" t="n">
         <v>3</v>
@@ -9523,10 +9523,10 @@
         <v>18</v>
       </c>
       <c r="DA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB25" t="n">
-        <v>68.75</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="DC25" t="n">
         <v>0</v>
@@ -9538,10 +9538,10 @@
         <v>0</v>
       </c>
       <c r="DF25" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="DG25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="DH25" t="n">
         <v>0</v>
@@ -9935,16 +9935,16 @@
         <v>964983</v>
       </c>
       <c r="E27" t="n">
-        <v>7.0666666666667</v>
+        <v>7.05</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="n">
-        <v>1350</v>
+        <v>1440</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -9999,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01441443</v>
+        <v>0.01498198</v>
       </c>
       <c r="AB27" t="n">
-        <v>632</v>
+        <v>679</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -10011,28 +10011,28 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="AF27" t="n">
-        <v>71.008403361345</v>
+        <v>70.058708414873</v>
       </c>
       <c r="AG27" t="n">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="AH27" t="n">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="n">
-        <v>35.436893203883</v>
+        <v>34.801762114537</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -10050,13 +10050,13 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AS27" t="n">
         <v>3</v>
       </c>
       <c r="AT27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -10077,16 +10077,16 @@
         <v>100</v>
       </c>
       <c r="BA27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>72.727272727273</v>
+        <v>75</v>
       </c>
       <c r="BC27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD27" t="n">
-        <v>57.142857142857</v>
+        <v>62.5</v>
       </c>
       <c r="BE27" t="n">
         <v>4</v>
@@ -10095,46 +10095,46 @@
         <v>100</v>
       </c>
       <c r="BG27" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
       </c>
       <c r="BI27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ27" t="n">
         <v>0</v>
       </c>
       <c r="BK27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL27" t="n">
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BN27" t="n">
         <v>6</v>
       </c>
       <c r="BO27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BP27" t="n">
         <v>1</v>
       </c>
       <c r="BQ27" t="n">
-        <v>106</v>
+        <v>112.8</v>
       </c>
       <c r="BR27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS27" t="n">
         <v>0</v>
       </c>
       <c r="BT27" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="BU27" t="n">
         <v>0</v>
@@ -10161,10 +10161,10 @@
         <v>0</v>
       </c>
       <c r="CC27" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="CD27" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE27" t="n">
         <v>0</v>
@@ -10176,19 +10176,19 @@
         <v>3</v>
       </c>
       <c r="CH27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CI27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CJ27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK27" t="n">
         <v>3</v>
       </c>
       <c r="CL27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CM27" t="n">
         <v>12</v>
@@ -10197,7 +10197,7 @@
         <v>12</v>
       </c>
       <c r="CO27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CP27" t="n">
         <v>0</v>
@@ -10230,7 +10230,7 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
@@ -10248,13 +10248,13 @@
         <v>8</v>
       </c>
       <c r="DF27" t="n">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="DG27" t="n">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="DH27" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="DL27" t="n">
-        <v>0.0071999999999997</v>
+        <v>-0.4475</v>
       </c>
     </row>
   </sheetData>
